--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F9-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F9-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.485090663836481</v>
+        <v>0.5867746666666668</v>
       </c>
       <c r="H2">
-        <v>0.485090663836481</v>
+        <v>1.760324</v>
       </c>
       <c r="I2">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="J2">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>0.7786546066357706</v>
+        <v>1.026298817508</v>
       </c>
       <c r="R2">
-        <v>0.7786546066357706</v>
+        <v>9.236689357572002</v>
       </c>
       <c r="S2">
-        <v>0.001751873015189332</v>
+        <v>0.001916172663302443</v>
       </c>
       <c r="T2">
-        <v>0.001751873015189332</v>
+        <v>0.001916172663302443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.485090663836481</v>
+        <v>0.5867746666666668</v>
       </c>
       <c r="H3">
-        <v>0.485090663836481</v>
+        <v>1.760324</v>
       </c>
       <c r="I3">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="J3">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>69.09413008025257</v>
+        <v>83.92963912864892</v>
       </c>
       <c r="R3">
-        <v>69.09413008025257</v>
+        <v>755.3667521578402</v>
       </c>
       <c r="S3">
-        <v>0.1554529324864015</v>
+        <v>0.156702587390346</v>
       </c>
       <c r="T3">
-        <v>0.1554529324864015</v>
+        <v>0.156702587390346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.485090663836481</v>
+        <v>0.5867746666666668</v>
       </c>
       <c r="H4">
-        <v>0.485090663836481</v>
+        <v>1.760324</v>
       </c>
       <c r="I4">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="J4">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>58.99409459224264</v>
+        <v>77.92649929302935</v>
       </c>
       <c r="R4">
-        <v>58.99409459224264</v>
+        <v>701.3384936372642</v>
       </c>
       <c r="S4">
-        <v>0.1327291478030395</v>
+        <v>0.1454942996570255</v>
       </c>
       <c r="T4">
-        <v>0.1327291478030395</v>
+        <v>0.1454942996570256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.485090663836481</v>
+        <v>0.5867746666666668</v>
       </c>
       <c r="H5">
-        <v>0.485090663836481</v>
+        <v>1.760324</v>
       </c>
       <c r="I5">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="J5">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>60.59465778198941</v>
+        <v>73.76179098920535</v>
       </c>
       <c r="R5">
-        <v>60.59465778198941</v>
+        <v>663.8561189028482</v>
       </c>
       <c r="S5">
-        <v>0.1363302097338711</v>
+        <v>0.1377184939498792</v>
       </c>
       <c r="T5">
-        <v>0.1363302097338711</v>
+        <v>0.1377184939498792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.485090663836481</v>
+        <v>0.5867746666666668</v>
       </c>
       <c r="H6">
-        <v>0.485090663836481</v>
+        <v>1.760324</v>
       </c>
       <c r="I6">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="J6">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>25.54831442704566</v>
+        <v>31.44318991779778</v>
       </c>
       <c r="R6">
-        <v>25.54831442704566</v>
+        <v>282.98870926018</v>
       </c>
       <c r="S6">
-        <v>0.05748043130662379</v>
+        <v>0.05870666509565713</v>
       </c>
       <c r="T6">
-        <v>0.05748043130662379</v>
+        <v>0.05870666509565713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.485090663836481</v>
+        <v>0.5867746666666668</v>
       </c>
       <c r="H7">
-        <v>0.485090663836481</v>
+        <v>1.760324</v>
       </c>
       <c r="I7">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="J7">
-        <v>0.5074110531894833</v>
+        <v>0.5257388407083505</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>10.5190256611857</v>
+        <v>13.49741023096178</v>
       </c>
       <c r="R7">
-        <v>10.5190256611857</v>
+        <v>121.476692078656</v>
       </c>
       <c r="S7">
-        <v>0.02366645884435814</v>
+        <v>0.02520062195214023</v>
       </c>
       <c r="T7">
-        <v>0.02366645884435814</v>
+        <v>0.02520062195214024</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.470920563722121</v>
+        <v>0.5293206666666667</v>
       </c>
       <c r="H8">
-        <v>0.470920563722121</v>
+        <v>1.587962</v>
       </c>
       <c r="I8">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="J8">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>0.7559091395445801</v>
+        <v>0.9258088413540002</v>
       </c>
       <c r="R8">
-        <v>0.7559091395445801</v>
+        <v>8.332279572186001</v>
       </c>
       <c r="S8">
-        <v>0.00170069863096897</v>
+        <v>0.001728550752454135</v>
       </c>
       <c r="T8">
-        <v>0.00170069863096897</v>
+        <v>0.001728550752454136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.470920563722121</v>
+        <v>0.5293206666666667</v>
       </c>
       <c r="H9">
-        <v>0.470920563722121</v>
+        <v>1.587962</v>
       </c>
       <c r="I9">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="J9">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>67.07580481955073</v>
+        <v>75.71167444743557</v>
       </c>
       <c r="R9">
-        <v>67.07580481955073</v>
+        <v>681.40507002692</v>
       </c>
       <c r="S9">
-        <v>0.1509119594670863</v>
+        <v>0.1413590646253465</v>
       </c>
       <c r="T9">
-        <v>0.1509119594670863</v>
+        <v>0.1413590646253465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.470920563722121</v>
+        <v>0.5293206666666667</v>
       </c>
       <c r="H10">
-        <v>0.470920563722121</v>
+        <v>1.587962</v>
       </c>
       <c r="I10">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="J10">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>57.27080389867058</v>
+        <v>70.29633162438134</v>
       </c>
       <c r="R10">
-        <v>57.27080389867058</v>
+        <v>632.6669846194321</v>
       </c>
       <c r="S10">
-        <v>0.1288519647263997</v>
+        <v>0.1312482355929758</v>
       </c>
       <c r="T10">
-        <v>0.1288519647263997</v>
+        <v>0.1312482355929759</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.470920563722121</v>
+        <v>0.5293206666666667</v>
       </c>
       <c r="H11">
-        <v>0.470920563722121</v>
+        <v>1.587962</v>
       </c>
       <c r="I11">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="J11">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>58.82461265191944</v>
+        <v>66.53941043966933</v>
       </c>
       <c r="R11">
-        <v>58.82461265191944</v>
+        <v>598.8546939570241</v>
       </c>
       <c r="S11">
-        <v>0.1323478351706042</v>
+        <v>0.1242337973518728</v>
       </c>
       <c r="T11">
-        <v>0.1323478351706042</v>
+        <v>0.1242337973518728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.470920563722121</v>
+        <v>0.5293206666666667</v>
       </c>
       <c r="H12">
-        <v>0.470920563722121</v>
+        <v>1.587962</v>
       </c>
       <c r="I12">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="J12">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>24.80201646632791</v>
+        <v>28.36443220012111</v>
       </c>
       <c r="R12">
-        <v>24.80201646632791</v>
+        <v>255.27988980109</v>
       </c>
       <c r="S12">
-        <v>0.05580135659553841</v>
+        <v>0.05295840613354692</v>
       </c>
       <c r="T12">
-        <v>0.05580135659553841</v>
+        <v>0.05295840613354694</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.470920563722121</v>
+        <v>0.5293206666666667</v>
       </c>
       <c r="H13">
-        <v>0.470920563722121</v>
+        <v>1.587962</v>
       </c>
       <c r="I13">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="J13">
-        <v>0.4925889468105167</v>
+        <v>0.4742611592916495</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>10.21175187128079</v>
+        <v>12.17581226250311</v>
       </c>
       <c r="R13">
-        <v>10.21175187128079</v>
+        <v>109.582310362528</v>
       </c>
       <c r="S13">
-        <v>0.02297513221991917</v>
+        <v>0.0227331048354533</v>
       </c>
       <c r="T13">
-        <v>0.02297513221991917</v>
+        <v>0.02273310483545331</v>
       </c>
     </row>
   </sheetData>
